--- a/New Analysis Code/Templates/ScrotationCombo Scaling Analysis Template.xlsx
+++ b/New Analysis Code/Templates/ScrotationCombo Scaling Analysis Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emban\Documents\GitHub\EMC-Scrotation-Station\New Analysis Code\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd7473887230acd6/Documents/EMC-Scrotation-Station/New Analysis Code/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5328189E-B258-4377-9EF5-BF740E45836D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5328189E-B258-4377-9EF5-BF740E45836D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5497CB6B-F124-438C-AB13-B96AD695CD25}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>Angle of Height (°)</t>
   </si>
   <si>
-    <t>Log2 of Height (log2 °)</t>
-  </si>
-  <si>
     <t>Virtual Distance (m)</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>#48cce0</t>
+  </si>
+  <si>
+    <t>Angle of Height (log2 Scaled °)</t>
   </si>
 </sst>
 </file>
@@ -536,22 +536,22 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="1" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -588,7 +588,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -633,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
@@ -644,7 +644,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G4" t="str">
         <f>"-150 degree roll"</f>
@@ -654,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
         <v>5</v>
@@ -665,7 +665,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" t="str">
         <f>"-180 degree roll"</f>
@@ -675,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
         <v>5</v>
@@ -694,7 +694,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
         <v>5</v>
@@ -709,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
         <v>5</v>
@@ -724,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
         <v>5</v>
@@ -738,7 +738,7 @@
         <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
         <v>5</v>
@@ -752,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
         <v>5</v>
@@ -766,7 +766,7 @@
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
         <v>5</v>
@@ -780,7 +780,7 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" t="s">
         <v>5</v>
@@ -794,7 +794,7 @@
         <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13" t="s">
         <v>5</v>
@@ -808,7 +808,7 @@
         <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s">
         <v>5</v>
@@ -823,7 +823,7 @@
         <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
         <v>5</v>
